--- a/새 Microsoft Excel 워크시트.xlsx
+++ b/새 Microsoft Excel 워크시트.xlsx
@@ -1,13 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_St\java1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D454333-162F-4D01-A9CD-004185F65F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="32130" yWindow="2985" windowWidth="15510" windowHeight="12330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="메뉴설계" sheetId="1" r:id="rId1"/>
+    <sheet name="흐름설계" sheetId="2" r:id="rId2"/>
+    <sheet name="화면설계" sheetId="3" r:id="rId3"/>
+    <sheet name="소스" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +28,144 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+  <si>
+    <t>한성컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스크탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13형대 노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14형대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.monsterlabs.co.kr/src/category/?category=2|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.monsterlabs.co.kr/src/category/?category=1|0</t>
+  </si>
+  <si>
+    <t>https://www.monsterlabs.co.kr/src/category/?category=13|0</t>
+  </si>
+  <si>
+    <t>https://www.monsterlabs.co.kr/src/category/?category=4|0</t>
+  </si>
+  <si>
+    <t>사무용교육용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d게임 그래픽용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고성능전문가용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특가제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피커헤드셋마이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹캠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이밍의자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hansungcom.co.kr/</t>
+  </si>
+  <si>
+    <t>사이드바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/S안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +188,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +211,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20109</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78640B07-EEAA-426C-B30A-0AB4292CEC8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="628650"/>
+          <a:ext cx="7535334" cy="4238625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +524,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AE11ED55-C05B-433D-B8DF-675BE993F9E7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B1EE3B-62BE-4DF2-A098-E687316EF4CC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120888-419A-488D-AF0A-44CCBFCF3701}">
+  <dimension ref="B2:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O27:P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73656A23-7F53-46F3-9B18-6D8D4A69526E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EDB389-CFB9-4B2F-9168-767E5A650C3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>